--- a/chemistry/chimie.xlsx
+++ b/chemistry/chimie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M43507\eclipse-workspace\gittool\src\com\zoubworld\chemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6EC058-6229-49DB-BC04-DDF4152671F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBBFB02-AF4E-452A-A8B5-DFF78E6DCF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="703" activeTab="5" xr2:uid="{1C68AD00-465A-405D-8959-1F3CE46C11A6}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="703" activeTab="3" xr2:uid="{1C68AD00-465A-405D-8959-1F3CE46C11A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet20" sheetId="20" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="info" sheetId="8" r:id="rId3"/>
     <sheet name="chimique" sheetId="17" r:id="rId4"/>
     <sheet name="electronique" sheetId="3" r:id="rId5"/>
-    <sheet name="physique" sheetId="19" r:id="rId6"/>
+    <sheet name="ionization" sheetId="22" r:id="rId6"/>
+    <sheet name="physique" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +39,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pierre Valleau - M43507</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6E8998C7-C8B0-4C0C-B953-E7282B227321}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+énergies d'ionisation
+en kilojoules par mole (kJ·mol−1)
+https://fr.wikipedia.org/wiki/Liste_d%27%C3%A9nergies_d%27ionisation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43EC5917-40EF-402C-805E-6339F3549C03}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C3%A9nergies_d%27ionisation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6759" uniqueCount="2913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7906" uniqueCount="3931">
   <si>
     <t>H</t>
   </si>
@@ -16178,13 +16216,3501 @@
   </si>
   <si>
     <t>Point de fusion2</t>
+  </si>
+  <si>
+    <t>1 312,0</t>
+  </si>
+  <si>
+    <t>2 372,3</t>
+  </si>
+  <si>
+    <t>5 250,5</t>
+  </si>
+  <si>
+    <t>hydrogène</t>
+  </si>
+  <si>
+    <t>hélium</t>
+  </si>
+  <si>
+    <t>lithium</t>
+  </si>
+  <si>
+    <t>520,2</t>
+  </si>
+  <si>
+    <t>7 298,1</t>
+  </si>
+  <si>
+    <t>11 815,0</t>
+  </si>
+  <si>
+    <t>béryllium</t>
+  </si>
+  <si>
+    <t>899,5</t>
+  </si>
+  <si>
+    <t>1 757,1</t>
+  </si>
+  <si>
+    <t>14 848,7</t>
+  </si>
+  <si>
+    <t>21 006,6</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>800,6</t>
+  </si>
+  <si>
+    <t>2 427,1</t>
+  </si>
+  <si>
+    <t>3 659,7</t>
+  </si>
+  <si>
+    <t>25 025,8</t>
+  </si>
+  <si>
+    <t>32 826,7</t>
+  </si>
+  <si>
+    <t>carbone</t>
+  </si>
+  <si>
+    <t>1 086,5</t>
+  </si>
+  <si>
+    <t>2 352,6</t>
+  </si>
+  <si>
+    <t>4 620,5</t>
+  </si>
+  <si>
+    <t>6 222,7</t>
+  </si>
+  <si>
+    <t>37 831</t>
+  </si>
+  <si>
+    <t>47 277,0</t>
+  </si>
+  <si>
+    <t>azote</t>
+  </si>
+  <si>
+    <t>1 402,3</t>
+  </si>
+  <si>
+    <t>2 856</t>
+  </si>
+  <si>
+    <t>4 578,1</t>
+  </si>
+  <si>
+    <t>7 475,0</t>
+  </si>
+  <si>
+    <t>9 444,9</t>
+  </si>
+  <si>
+    <t>53 266,6</t>
+  </si>
+  <si>
+    <t>64 360</t>
+  </si>
+  <si>
+    <t>oxygène</t>
+  </si>
+  <si>
+    <t>1 313,9</t>
+  </si>
+  <si>
+    <t>3 388,3</t>
+  </si>
+  <si>
+    <t>5 300,5</t>
+  </si>
+  <si>
+    <t>7 469,2</t>
+  </si>
+  <si>
+    <t>10 989,5</t>
+  </si>
+  <si>
+    <t>13 326,5</t>
+  </si>
+  <si>
+    <t>71 330</t>
+  </si>
+  <si>
+    <t>84 078,0</t>
+  </si>
+  <si>
+    <t>fluor</t>
+  </si>
+  <si>
+    <t>1 681,0</t>
+  </si>
+  <si>
+    <t>3 374,2</t>
+  </si>
+  <si>
+    <t>6 050,4</t>
+  </si>
+  <si>
+    <t>8 407,7</t>
+  </si>
+  <si>
+    <t>11 022,7</t>
+  </si>
+  <si>
+    <t>15 164,1</t>
+  </si>
+  <si>
+    <t>17 868</t>
+  </si>
+  <si>
+    <t>92 038,1</t>
+  </si>
+  <si>
+    <t>106 434,3</t>
+  </si>
+  <si>
+    <t>néon</t>
+  </si>
+  <si>
+    <t>2 080,7</t>
+  </si>
+  <si>
+    <t>3 952,3</t>
+  </si>
+  <si>
+    <t>6 122</t>
+  </si>
+  <si>
+    <t>9 371</t>
+  </si>
+  <si>
+    <t>12 177</t>
+  </si>
+  <si>
+    <t>15 238</t>
+  </si>
+  <si>
+    <t>19 999,0</t>
+  </si>
+  <si>
+    <t>23 069,5</t>
+  </si>
+  <si>
+    <t>115 379,5</t>
+  </si>
+  <si>
+    <t>131 432</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>495,8</t>
+  </si>
+  <si>
+    <t>4 562</t>
+  </si>
+  <si>
+    <t>6 910,3</t>
+  </si>
+  <si>
+    <t>9 543</t>
+  </si>
+  <si>
+    <t>13 354</t>
+  </si>
+  <si>
+    <t>16 613</t>
+  </si>
+  <si>
+    <t>20 117</t>
+  </si>
+  <si>
+    <t>25 496</t>
+  </si>
+  <si>
+    <t>28 932</t>
+  </si>
+  <si>
+    <t>141 362</t>
+  </si>
+  <si>
+    <t>magnésium</t>
+  </si>
+  <si>
+    <t>737,7</t>
+  </si>
+  <si>
+    <t>1 450,7</t>
+  </si>
+  <si>
+    <t>7 732,7</t>
+  </si>
+  <si>
+    <t>10 542,5</t>
+  </si>
+  <si>
+    <t>13 630</t>
+  </si>
+  <si>
+    <t>18 020</t>
+  </si>
+  <si>
+    <t>21 711</t>
+  </si>
+  <si>
+    <t>25 661</t>
+  </si>
+  <si>
+    <t>31 653</t>
+  </si>
+  <si>
+    <t>35 458</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>577,5</t>
+  </si>
+  <si>
+    <t>1 816,7</t>
+  </si>
+  <si>
+    <t>2 744,8</t>
+  </si>
+  <si>
+    <t>11 577</t>
+  </si>
+  <si>
+    <t>14 842</t>
+  </si>
+  <si>
+    <t>18 379</t>
+  </si>
+  <si>
+    <t>23 326</t>
+  </si>
+  <si>
+    <t>27 465</t>
+  </si>
+  <si>
+    <t>31 853</t>
+  </si>
+  <si>
+    <t>38 473</t>
+  </si>
+  <si>
+    <t>silicium</t>
+  </si>
+  <si>
+    <t>786,5</t>
+  </si>
+  <si>
+    <t>1 577,1</t>
+  </si>
+  <si>
+    <t>3 231,6</t>
+  </si>
+  <si>
+    <t>4 355,5</t>
+  </si>
+  <si>
+    <t>16 091</t>
+  </si>
+  <si>
+    <t>19 805</t>
+  </si>
+  <si>
+    <t>23 780</t>
+  </si>
+  <si>
+    <t>29 287</t>
+  </si>
+  <si>
+    <t>33 878</t>
+  </si>
+  <si>
+    <t>38 726</t>
+  </si>
+  <si>
+    <t>phosphore</t>
+  </si>
+  <si>
+    <t>1 011,8</t>
+  </si>
+  <si>
+    <t>1 907</t>
+  </si>
+  <si>
+    <t>2 914,1</t>
+  </si>
+  <si>
+    <t>4 963,6</t>
+  </si>
+  <si>
+    <t>6 273,9</t>
+  </si>
+  <si>
+    <t>21 267</t>
+  </si>
+  <si>
+    <t>25 431</t>
+  </si>
+  <si>
+    <t>29 872</t>
+  </si>
+  <si>
+    <t>35 905</t>
+  </si>
+  <si>
+    <t>40 950</t>
+  </si>
+  <si>
+    <t>soufre</t>
+  </si>
+  <si>
+    <t>999,6</t>
+  </si>
+  <si>
+    <t>2 252</t>
+  </si>
+  <si>
+    <t>3 357</t>
+  </si>
+  <si>
+    <t>4 556</t>
+  </si>
+  <si>
+    <t>7 004,3</t>
+  </si>
+  <si>
+    <t>8 495,8</t>
+  </si>
+  <si>
+    <t>27 107</t>
+  </si>
+  <si>
+    <t>31 719</t>
+  </si>
+  <si>
+    <t>36 621</t>
+  </si>
+  <si>
+    <t>43 177</t>
+  </si>
+  <si>
+    <t>chlore</t>
+  </si>
+  <si>
+    <t>1 251,2</t>
+  </si>
+  <si>
+    <t>2 298</t>
+  </si>
+  <si>
+    <t>3 822</t>
+  </si>
+  <si>
+    <t>5 158,6</t>
+  </si>
+  <si>
+    <t>6 542</t>
+  </si>
+  <si>
+    <t>9 362</t>
+  </si>
+  <si>
+    <t>11 018</t>
+  </si>
+  <si>
+    <t>33 604</t>
+  </si>
+  <si>
+    <t>38 600</t>
+  </si>
+  <si>
+    <t>43 961</t>
+  </si>
+  <si>
+    <t>argon</t>
+  </si>
+  <si>
+    <t>1 520,6</t>
+  </si>
+  <si>
+    <t>2 665,8</t>
+  </si>
+  <si>
+    <t>3 931</t>
+  </si>
+  <si>
+    <t>5 771</t>
+  </si>
+  <si>
+    <t>7 238</t>
+  </si>
+  <si>
+    <t>8 781</t>
+  </si>
+  <si>
+    <t>11 995</t>
+  </si>
+  <si>
+    <t>13 842</t>
+  </si>
+  <si>
+    <t>40 760</t>
+  </si>
+  <si>
+    <t>46 186</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>418,8</t>
+  </si>
+  <si>
+    <t>3 052</t>
+  </si>
+  <si>
+    <t>4 420</t>
+  </si>
+  <si>
+    <t>5 877</t>
+  </si>
+  <si>
+    <t>7 975</t>
+  </si>
+  <si>
+    <t>9 590</t>
+  </si>
+  <si>
+    <t>11 343</t>
+  </si>
+  <si>
+    <t>14 944</t>
+  </si>
+  <si>
+    <t>16 963,7</t>
+  </si>
+  <si>
+    <t>48 610</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>589,8</t>
+  </si>
+  <si>
+    <t>1 145,4</t>
+  </si>
+  <si>
+    <t>4 912,4</t>
+  </si>
+  <si>
+    <t>6 491</t>
+  </si>
+  <si>
+    <t>8 153</t>
+  </si>
+  <si>
+    <t>10 496</t>
+  </si>
+  <si>
+    <t>12 270</t>
+  </si>
+  <si>
+    <t>14 206</t>
+  </si>
+  <si>
+    <t>18 191</t>
+  </si>
+  <si>
+    <t>20 385</t>
+  </si>
+  <si>
+    <t>scandium</t>
+  </si>
+  <si>
+    <t>633,1</t>
+  </si>
+  <si>
+    <t>1 235,0</t>
+  </si>
+  <si>
+    <t>2 388,6</t>
+  </si>
+  <si>
+    <t>7 090,6</t>
+  </si>
+  <si>
+    <t>8 843</t>
+  </si>
+  <si>
+    <t>10 679</t>
+  </si>
+  <si>
+    <t>13 310</t>
+  </si>
+  <si>
+    <t>15 250</t>
+  </si>
+  <si>
+    <t>17 370</t>
+  </si>
+  <si>
+    <t>21 726</t>
+  </si>
+  <si>
+    <t>titane</t>
+  </si>
+  <si>
+    <t>658,8</t>
+  </si>
+  <si>
+    <t>1 309,8</t>
+  </si>
+  <si>
+    <t>2 652,5</t>
+  </si>
+  <si>
+    <t>4 174,6</t>
+  </si>
+  <si>
+    <t>9 581</t>
+  </si>
+  <si>
+    <t>11 533</t>
+  </si>
+  <si>
+    <t>13 590</t>
+  </si>
+  <si>
+    <t>16 440</t>
+  </si>
+  <si>
+    <t>18 530</t>
+  </si>
+  <si>
+    <t>20 833</t>
+  </si>
+  <si>
+    <t>vanadium</t>
+  </si>
+  <si>
+    <t>650,9</t>
+  </si>
+  <si>
+    <t>1 414</t>
+  </si>
+  <si>
+    <t>2 830</t>
+  </si>
+  <si>
+    <t>4 507</t>
+  </si>
+  <si>
+    <t>6 298,7</t>
+  </si>
+  <si>
+    <t>12 363</t>
+  </si>
+  <si>
+    <t>14 530</t>
+  </si>
+  <si>
+    <t>16 730</t>
+  </si>
+  <si>
+    <t>19 860</t>
+  </si>
+  <si>
+    <t>22 240</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>652,9</t>
+  </si>
+  <si>
+    <t>1 590,6</t>
+  </si>
+  <si>
+    <t>2 987</t>
+  </si>
+  <si>
+    <t>4 743</t>
+  </si>
+  <si>
+    <t>6 702</t>
+  </si>
+  <si>
+    <t>8 744,9</t>
+  </si>
+  <si>
+    <t>15 455</t>
+  </si>
+  <si>
+    <t>17 820</t>
+  </si>
+  <si>
+    <t>20 190</t>
+  </si>
+  <si>
+    <t>23 580</t>
+  </si>
+  <si>
+    <t>manganèse</t>
+  </si>
+  <si>
+    <t>717,3</t>
+  </si>
+  <si>
+    <t>1 509,0</t>
+  </si>
+  <si>
+    <t>3 248</t>
+  </si>
+  <si>
+    <t>4 940</t>
+  </si>
+  <si>
+    <t>6 990</t>
+  </si>
+  <si>
+    <t>9 220</t>
+  </si>
+  <si>
+    <t>11 500</t>
+  </si>
+  <si>
+    <t>18 770</t>
+  </si>
+  <si>
+    <t>21 400</t>
+  </si>
+  <si>
+    <t>23 960</t>
+  </si>
+  <si>
+    <t>fer</t>
+  </si>
+  <si>
+    <t>762,5</t>
+  </si>
+  <si>
+    <t>1 561,9</t>
+  </si>
+  <si>
+    <t>2 957</t>
+  </si>
+  <si>
+    <t>5 290</t>
+  </si>
+  <si>
+    <t>7 240</t>
+  </si>
+  <si>
+    <t>9 560</t>
+  </si>
+  <si>
+    <t>12 060</t>
+  </si>
+  <si>
+    <t>14 580</t>
+  </si>
+  <si>
+    <t>22 540</t>
+  </si>
+  <si>
+    <t>25 290</t>
+  </si>
+  <si>
+    <t>cobalt</t>
+  </si>
+  <si>
+    <t>760,4</t>
+  </si>
+  <si>
+    <t>1 648</t>
+  </si>
+  <si>
+    <t>3 232</t>
+  </si>
+  <si>
+    <t>4 950</t>
+  </si>
+  <si>
+    <t>7 670</t>
+  </si>
+  <si>
+    <t>9 840</t>
+  </si>
+  <si>
+    <t>12 440</t>
+  </si>
+  <si>
+    <t>15 230</t>
+  </si>
+  <si>
+    <t>17 959</t>
+  </si>
+  <si>
+    <t>26 570</t>
+  </si>
+  <si>
+    <t>nickel</t>
+  </si>
+  <si>
+    <t>737,1</t>
+  </si>
+  <si>
+    <t>1 753,0</t>
+  </si>
+  <si>
+    <t>3 395</t>
+  </si>
+  <si>
+    <t>5 300</t>
+  </si>
+  <si>
+    <t>7 339</t>
+  </si>
+  <si>
+    <t>10 400</t>
+  </si>
+  <si>
+    <t>12 800</t>
+  </si>
+  <si>
+    <t>15 600</t>
+  </si>
+  <si>
+    <t>18 600</t>
+  </si>
+  <si>
+    <t>21 670</t>
+  </si>
+  <si>
+    <t>cuivre</t>
+  </si>
+  <si>
+    <t>745,5</t>
+  </si>
+  <si>
+    <t>1 957,9</t>
+  </si>
+  <si>
+    <t>3 555</t>
+  </si>
+  <si>
+    <t>5 536</t>
+  </si>
+  <si>
+    <t>7 700</t>
+  </si>
+  <si>
+    <t>9 900</t>
+  </si>
+  <si>
+    <t>13 400</t>
+  </si>
+  <si>
+    <t>16 000</t>
+  </si>
+  <si>
+    <t>19 200</t>
+  </si>
+  <si>
+    <t>22 400</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>906,4</t>
+  </si>
+  <si>
+    <t>1 733,3</t>
+  </si>
+  <si>
+    <t>3 833</t>
+  </si>
+  <si>
+    <t>5 731</t>
+  </si>
+  <si>
+    <t>7 970</t>
+  </si>
+  <si>
+    <t>12 900</t>
+  </si>
+  <si>
+    <t>16 800</t>
+  </si>
+  <si>
+    <t>19 600</t>
+  </si>
+  <si>
+    <t>23 000</t>
+  </si>
+  <si>
+    <t>gallium</t>
+  </si>
+  <si>
+    <t>578,8</t>
+  </si>
+  <si>
+    <t>1 979,3</t>
+  </si>
+  <si>
+    <t>2 963</t>
+  </si>
+  <si>
+    <t>6 180</t>
+  </si>
+  <si>
+    <t>germanium</t>
+  </si>
+  <si>
+    <t>1 537,5</t>
+  </si>
+  <si>
+    <t>3 302,1</t>
+  </si>
+  <si>
+    <t>4 411</t>
+  </si>
+  <si>
+    <t>9 020</t>
+  </si>
+  <si>
+    <t>arsenic</t>
+  </si>
+  <si>
+    <t>947,0</t>
+  </si>
+  <si>
+    <t>1 798</t>
+  </si>
+  <si>
+    <t>2 735</t>
+  </si>
+  <si>
+    <t>4 837</t>
+  </si>
+  <si>
+    <t>6 043</t>
+  </si>
+  <si>
+    <t>12 310</t>
+  </si>
+  <si>
+    <t>sélénium</t>
+  </si>
+  <si>
+    <t>941,0</t>
+  </si>
+  <si>
+    <t>2 045</t>
+  </si>
+  <si>
+    <t>2 973,7</t>
+  </si>
+  <si>
+    <t>4 144</t>
+  </si>
+  <si>
+    <t>6 590</t>
+  </si>
+  <si>
+    <t>7 880</t>
+  </si>
+  <si>
+    <t>14 990</t>
+  </si>
+  <si>
+    <t>brome</t>
+  </si>
+  <si>
+    <t>1 139,9</t>
+  </si>
+  <si>
+    <t>2 103</t>
+  </si>
+  <si>
+    <t>3 470</t>
+  </si>
+  <si>
+    <t>4 560</t>
+  </si>
+  <si>
+    <t>5 760</t>
+  </si>
+  <si>
+    <t>8 550</t>
+  </si>
+  <si>
+    <t>9 940</t>
+  </si>
+  <si>
+    <t>krypton</t>
+  </si>
+  <si>
+    <t>1 350,8</t>
+  </si>
+  <si>
+    <t>2 350,4</t>
+  </si>
+  <si>
+    <t>3 565</t>
+  </si>
+  <si>
+    <t>5 070</t>
+  </si>
+  <si>
+    <t>6 240</t>
+  </si>
+  <si>
+    <t>7 570</t>
+  </si>
+  <si>
+    <t>10 710</t>
+  </si>
+  <si>
+    <t>12 138</t>
+  </si>
+  <si>
+    <t>22 274</t>
+  </si>
+  <si>
+    <t>25 880</t>
+  </si>
+  <si>
+    <t>rubidium</t>
+  </si>
+  <si>
+    <t>403,0</t>
+  </si>
+  <si>
+    <t>2 633</t>
+  </si>
+  <si>
+    <t>3 860</t>
+  </si>
+  <si>
+    <t>5 080</t>
+  </si>
+  <si>
+    <t>6 850</t>
+  </si>
+  <si>
+    <t>8 140</t>
+  </si>
+  <si>
+    <t>9 570</t>
+  </si>
+  <si>
+    <t>13 120</t>
+  </si>
+  <si>
+    <t>14 500</t>
+  </si>
+  <si>
+    <t>26 740</t>
+  </si>
+  <si>
+    <t>strontium</t>
+  </si>
+  <si>
+    <t>549,5</t>
+  </si>
+  <si>
+    <t>1 064,2</t>
+  </si>
+  <si>
+    <t>4 138</t>
+  </si>
+  <si>
+    <t>5 500</t>
+  </si>
+  <si>
+    <t>6 910</t>
+  </si>
+  <si>
+    <t>8 760</t>
+  </si>
+  <si>
+    <t>10 230</t>
+  </si>
+  <si>
+    <t>11 800</t>
+  </si>
+  <si>
+    <t>17 100</t>
+  </si>
+  <si>
+    <t>yttrium</t>
+  </si>
+  <si>
+    <t>1 180</t>
+  </si>
+  <si>
+    <t>1 980</t>
+  </si>
+  <si>
+    <t>5 847</t>
+  </si>
+  <si>
+    <t>7 430</t>
+  </si>
+  <si>
+    <t>8 970</t>
+  </si>
+  <si>
+    <t>11 190</t>
+  </si>
+  <si>
+    <t>12 450</t>
+  </si>
+  <si>
+    <t>14 110</t>
+  </si>
+  <si>
+    <t>18 400</t>
+  </si>
+  <si>
+    <t>zirconium</t>
+  </si>
+  <si>
+    <t>640,1</t>
+  </si>
+  <si>
+    <t>1 270</t>
+  </si>
+  <si>
+    <t>2 218</t>
+  </si>
+  <si>
+    <t>3 313</t>
+  </si>
+  <si>
+    <t>7 752</t>
+  </si>
+  <si>
+    <t>9 500</t>
+  </si>
+  <si>
+    <t>niobium</t>
+  </si>
+  <si>
+    <t>652,1</t>
+  </si>
+  <si>
+    <t>1 380</t>
+  </si>
+  <si>
+    <t>2 416</t>
+  </si>
+  <si>
+    <t>3 700</t>
+  </si>
+  <si>
+    <t>4 877</t>
+  </si>
+  <si>
+    <t>9 847</t>
+  </si>
+  <si>
+    <t>12 100</t>
+  </si>
+  <si>
+    <t>molybdène</t>
+  </si>
+  <si>
+    <t>684,3</t>
+  </si>
+  <si>
+    <t>1 560</t>
+  </si>
+  <si>
+    <t>2 618</t>
+  </si>
+  <si>
+    <t>4 480</t>
+  </si>
+  <si>
+    <t>5 257</t>
+  </si>
+  <si>
+    <t>6 640,8</t>
+  </si>
+  <si>
+    <t>12 125</t>
+  </si>
+  <si>
+    <t>13 860</t>
+  </si>
+  <si>
+    <t>15 835</t>
+  </si>
+  <si>
+    <t>17 980</t>
+  </si>
+  <si>
+    <t>technétium</t>
+  </si>
+  <si>
+    <t>1 470</t>
+  </si>
+  <si>
+    <t>2 850</t>
+  </si>
+  <si>
+    <t>ruthénium</t>
+  </si>
+  <si>
+    <t>710,2</t>
+  </si>
+  <si>
+    <t>1 620</t>
+  </si>
+  <si>
+    <t>2 747</t>
+  </si>
+  <si>
+    <t>rhodium</t>
+  </si>
+  <si>
+    <t>719,7</t>
+  </si>
+  <si>
+    <t>1 740</t>
+  </si>
+  <si>
+    <t>2 997</t>
+  </si>
+  <si>
+    <t>palladium</t>
+  </si>
+  <si>
+    <t>804,4</t>
+  </si>
+  <si>
+    <t>1 870</t>
+  </si>
+  <si>
+    <t>3 177</t>
+  </si>
+  <si>
+    <t>argent</t>
+  </si>
+  <si>
+    <t>731,0</t>
+  </si>
+  <si>
+    <t>2 070</t>
+  </si>
+  <si>
+    <t>3 361</t>
+  </si>
+  <si>
+    <t>cadmium</t>
+  </si>
+  <si>
+    <t>867,8</t>
+  </si>
+  <si>
+    <t>1 631,4</t>
+  </si>
+  <si>
+    <t>3 616</t>
+  </si>
+  <si>
+    <t>indium</t>
+  </si>
+  <si>
+    <t>558,3</t>
+  </si>
+  <si>
+    <t>1 820,7</t>
+  </si>
+  <si>
+    <t>2 704</t>
+  </si>
+  <si>
+    <t>5 210</t>
+  </si>
+  <si>
+    <t>Étain</t>
+  </si>
+  <si>
+    <t>708,6</t>
+  </si>
+  <si>
+    <t>1 411,8</t>
+  </si>
+  <si>
+    <t>2 943,0</t>
+  </si>
+  <si>
+    <t>3 930,3</t>
+  </si>
+  <si>
+    <t>7 456</t>
+  </si>
+  <si>
+    <t>antimoine</t>
+  </si>
+  <si>
+    <t>1 594,9</t>
+  </si>
+  <si>
+    <t>2 440</t>
+  </si>
+  <si>
+    <t>4 260</t>
+  </si>
+  <si>
+    <t>5 400</t>
+  </si>
+  <si>
+    <t>tellure</t>
+  </si>
+  <si>
+    <t>869,3</t>
+  </si>
+  <si>
+    <t>1 790</t>
+  </si>
+  <si>
+    <t>2 698</t>
+  </si>
+  <si>
+    <t>3 610</t>
+  </si>
+  <si>
+    <t>5 668</t>
+  </si>
+  <si>
+    <t>6 820</t>
+  </si>
+  <si>
+    <t>13 200</t>
+  </si>
+  <si>
+    <t>iode</t>
+  </si>
+  <si>
+    <t>1 008,4</t>
+  </si>
+  <si>
+    <t>1 845,9</t>
+  </si>
+  <si>
+    <t>3 180</t>
+  </si>
+  <si>
+    <t>xénon</t>
+  </si>
+  <si>
+    <t>1 170,4</t>
+  </si>
+  <si>
+    <t>2 046,4</t>
+  </si>
+  <si>
+    <t>3 099,4</t>
+  </si>
+  <si>
+    <t>césium</t>
+  </si>
+  <si>
+    <t>375,7</t>
+  </si>
+  <si>
+    <t>2 234,3</t>
+  </si>
+  <si>
+    <t>3 400</t>
+  </si>
+  <si>
+    <t>baryum</t>
+  </si>
+  <si>
+    <t>502,9</t>
+  </si>
+  <si>
+    <t>965,2</t>
+  </si>
+  <si>
+    <t>3 600</t>
+  </si>
+  <si>
+    <t>lanthane</t>
+  </si>
+  <si>
+    <t>538,1</t>
+  </si>
+  <si>
+    <t>1 067</t>
+  </si>
+  <si>
+    <t>1 850,3</t>
+  </si>
+  <si>
+    <t>4 819</t>
+  </si>
+  <si>
+    <t>5 940</t>
+  </si>
+  <si>
+    <t>cérium</t>
+  </si>
+  <si>
+    <t>534,4</t>
+  </si>
+  <si>
+    <t>1 050</t>
+  </si>
+  <si>
+    <t>1 949</t>
+  </si>
+  <si>
+    <t>3 547</t>
+  </si>
+  <si>
+    <t>6 325</t>
+  </si>
+  <si>
+    <t>7 490</t>
+  </si>
+  <si>
+    <t>praséodyme</t>
+  </si>
+  <si>
+    <t>1 020</t>
+  </si>
+  <si>
+    <t>2 086</t>
+  </si>
+  <si>
+    <t>3 761</t>
+  </si>
+  <si>
+    <t>5 551</t>
+  </si>
+  <si>
+    <t>néodyme</t>
+  </si>
+  <si>
+    <t>533,1</t>
+  </si>
+  <si>
+    <t>1 040</t>
+  </si>
+  <si>
+    <t>2 130</t>
+  </si>
+  <si>
+    <t>3 900</t>
+  </si>
+  <si>
+    <t>prométhium</t>
+  </si>
+  <si>
+    <t>2 150</t>
+  </si>
+  <si>
+    <t>3 970</t>
+  </si>
+  <si>
+    <t>samarium</t>
+  </si>
+  <si>
+    <t>544,5</t>
+  </si>
+  <si>
+    <t>1 070</t>
+  </si>
+  <si>
+    <t>2 260</t>
+  </si>
+  <si>
+    <t>3 990</t>
+  </si>
+  <si>
+    <t>europium</t>
+  </si>
+  <si>
+    <t>547,1</t>
+  </si>
+  <si>
+    <t>1 085</t>
+  </si>
+  <si>
+    <t>2 404</t>
+  </si>
+  <si>
+    <t>4 120</t>
+  </si>
+  <si>
+    <t>gadolinium</t>
+  </si>
+  <si>
+    <t>593,4</t>
+  </si>
+  <si>
+    <t>1 170</t>
+  </si>
+  <si>
+    <t>1 990</t>
+  </si>
+  <si>
+    <t>4 250</t>
+  </si>
+  <si>
+    <t>terbium</t>
+  </si>
+  <si>
+    <t>565,8</t>
+  </si>
+  <si>
+    <t>1 110</t>
+  </si>
+  <si>
+    <t>2 114</t>
+  </si>
+  <si>
+    <t>3 839</t>
+  </si>
+  <si>
+    <t>dysprosium</t>
+  </si>
+  <si>
+    <t>573,0</t>
+  </si>
+  <si>
+    <t>1 130</t>
+  </si>
+  <si>
+    <t>2 200</t>
+  </si>
+  <si>
+    <t>holmium</t>
+  </si>
+  <si>
+    <t>581,0</t>
+  </si>
+  <si>
+    <t>1 140</t>
+  </si>
+  <si>
+    <t>2 204</t>
+  </si>
+  <si>
+    <t>4 100</t>
+  </si>
+  <si>
+    <t>erbium</t>
+  </si>
+  <si>
+    <t>589,3</t>
+  </si>
+  <si>
+    <t>1 150</t>
+  </si>
+  <si>
+    <t>2 194</t>
+  </si>
+  <si>
+    <t>thulium</t>
+  </si>
+  <si>
+    <t>596,7</t>
+  </si>
+  <si>
+    <t>1 160</t>
+  </si>
+  <si>
+    <t>2 285</t>
+  </si>
+  <si>
+    <t>ytterbium</t>
+  </si>
+  <si>
+    <t>603,4</t>
+  </si>
+  <si>
+    <t>1 174,8</t>
+  </si>
+  <si>
+    <t>2 417</t>
+  </si>
+  <si>
+    <t>4 203</t>
+  </si>
+  <si>
+    <t>lutécium</t>
+  </si>
+  <si>
+    <t>523,5</t>
+  </si>
+  <si>
+    <t>1 340</t>
+  </si>
+  <si>
+    <t>2 022,3</t>
+  </si>
+  <si>
+    <t>4 370</t>
+  </si>
+  <si>
+    <t>6 445</t>
+  </si>
+  <si>
+    <t>hafnium</t>
+  </si>
+  <si>
+    <t>658,5</t>
+  </si>
+  <si>
+    <t>1 440</t>
+  </si>
+  <si>
+    <t>2 250</t>
+  </si>
+  <si>
+    <t>3 216</t>
+  </si>
+  <si>
+    <t>tantale</t>
+  </si>
+  <si>
+    <t>1 500</t>
+  </si>
+  <si>
+    <t>tungstène</t>
+  </si>
+  <si>
+    <t>1 700</t>
+  </si>
+  <si>
+    <t>rhénium</t>
+  </si>
+  <si>
+    <t>1 260</t>
+  </si>
+  <si>
+    <t>2 510</t>
+  </si>
+  <si>
+    <t>3 640</t>
+  </si>
+  <si>
+    <t>osmium</t>
+  </si>
+  <si>
+    <t>1 600</t>
+  </si>
+  <si>
+    <t>iridium</t>
+  </si>
+  <si>
+    <t>platine</t>
+  </si>
+  <si>
+    <t>1 791</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>890,1</t>
+  </si>
+  <si>
+    <t>mercure</t>
+  </si>
+  <si>
+    <t>1 007,1</t>
+  </si>
+  <si>
+    <t>1 810</t>
+  </si>
+  <si>
+    <t>3 300</t>
+  </si>
+  <si>
+    <t>thallium</t>
+  </si>
+  <si>
+    <t>589,4</t>
+  </si>
+  <si>
+    <t>1 971</t>
+  </si>
+  <si>
+    <t>2 878</t>
+  </si>
+  <si>
+    <t>plomb</t>
+  </si>
+  <si>
+    <t>715,6</t>
+  </si>
+  <si>
+    <t>1 450,5</t>
+  </si>
+  <si>
+    <t>3 081,5</t>
+  </si>
+  <si>
+    <t>4 083</t>
+  </si>
+  <si>
+    <t>6 640</t>
+  </si>
+  <si>
+    <t>bismuth</t>
+  </si>
+  <si>
+    <t>1 610</t>
+  </si>
+  <si>
+    <t>2 466</t>
+  </si>
+  <si>
+    <t>8 520</t>
+  </si>
+  <si>
+    <t>polonium</t>
+  </si>
+  <si>
+    <t>812,1</t>
+  </si>
+  <si>
+    <t>astate</t>
+  </si>
+  <si>
+    <t>radon</t>
+  </si>
+  <si>
+    <t>1 037</t>
+  </si>
+  <si>
+    <t>francium</t>
+  </si>
+  <si>
+    <t>radium</t>
+  </si>
+  <si>
+    <t>509,3</t>
+  </si>
+  <si>
+    <t>979,0</t>
+  </si>
+  <si>
+    <t>actinium</t>
+  </si>
+  <si>
+    <t>1 900</t>
+  </si>
+  <si>
+    <t>4 700</t>
+  </si>
+  <si>
+    <t>thorium</t>
+  </si>
+  <si>
+    <t>1 978</t>
+  </si>
+  <si>
+    <t>2 780</t>
+  </si>
+  <si>
+    <t>protactinium</t>
+  </si>
+  <si>
+    <t>1 128</t>
+  </si>
+  <si>
+    <t>1 814</t>
+  </si>
+  <si>
+    <t>2 991</t>
+  </si>
+  <si>
+    <t>uranium</t>
+  </si>
+  <si>
+    <t>597,6</t>
+  </si>
+  <si>
+    <t>1 420</t>
+  </si>
+  <si>
+    <t>3 145</t>
+  </si>
+  <si>
+    <t>neptunium</t>
+  </si>
+  <si>
+    <t>604,5</t>
+  </si>
+  <si>
+    <t>1 997</t>
+  </si>
+  <si>
+    <t>3 242</t>
+  </si>
+  <si>
+    <t>plutonium</t>
+  </si>
+  <si>
+    <t>584,7</t>
+  </si>
+  <si>
+    <t>2 084</t>
+  </si>
+  <si>
+    <t>3 338</t>
+  </si>
+  <si>
+    <t>américium</t>
+  </si>
+  <si>
+    <t>1 158</t>
+  </si>
+  <si>
+    <t>2 132</t>
+  </si>
+  <si>
+    <t>3 493</t>
+  </si>
+  <si>
+    <t>curium</t>
+  </si>
+  <si>
+    <t>1 196</t>
+  </si>
+  <si>
+    <t>2 026</t>
+  </si>
+  <si>
+    <t>3 550</t>
+  </si>
+  <si>
+    <t>berkélium</t>
+  </si>
+  <si>
+    <t>1 186</t>
+  </si>
+  <si>
+    <t>2 152</t>
+  </si>
+  <si>
+    <t>3 434</t>
+  </si>
+  <si>
+    <t>californium</t>
+  </si>
+  <si>
+    <t>1 206</t>
+  </si>
+  <si>
+    <t>2 267</t>
+  </si>
+  <si>
+    <t>3 599</t>
+  </si>
+  <si>
+    <t>einsteinium</t>
+  </si>
+  <si>
+    <t>1 216</t>
+  </si>
+  <si>
+    <t>2 334</t>
+  </si>
+  <si>
+    <t>3 734</t>
+  </si>
+  <si>
+    <t>fermium</t>
+  </si>
+  <si>
+    <t>1 225</t>
+  </si>
+  <si>
+    <t>2 363</t>
+  </si>
+  <si>
+    <t>3 792</t>
+  </si>
+  <si>
+    <t>mendélévium</t>
+  </si>
+  <si>
+    <t>1 235</t>
+  </si>
+  <si>
+    <t>2 470</t>
+  </si>
+  <si>
+    <t>3 840</t>
+  </si>
+  <si>
+    <t>nobélium</t>
+  </si>
+  <si>
+    <t>1 254</t>
+  </si>
+  <si>
+    <t>2 643</t>
+  </si>
+  <si>
+    <t>3 956</t>
+  </si>
+  <si>
+    <t>lawrencium</t>
+  </si>
+  <si>
+    <t>1 428</t>
+  </si>
+  <si>
+    <t>2 228</t>
+  </si>
+  <si>
+    <t>4 910</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>rutherfordium</t>
+  </si>
+  <si>
+    <t>579,9</t>
+  </si>
+  <si>
+    <t>1 389,4</t>
+  </si>
+  <si>
+    <t>2 296,4</t>
+  </si>
+  <si>
+    <t>3 077,9</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>dubnium</t>
+  </si>
+  <si>
+    <t>664,8</t>
+  </si>
+  <si>
+    <t>1 546,7</t>
+  </si>
+  <si>
+    <t>2 378,4</t>
+  </si>
+  <si>
+    <t>3 298,8</t>
+  </si>
+  <si>
+    <t>4 305,2</t>
+  </si>
+  <si>
+    <t>Sg</t>
+  </si>
+  <si>
+    <t>seaborgium</t>
+  </si>
+  <si>
+    <t>757,4</t>
+  </si>
+  <si>
+    <t>1 732,9</t>
+  </si>
+  <si>
+    <t>2 483,5</t>
+  </si>
+  <si>
+    <t>3 415,6</t>
+  </si>
+  <si>
+    <t>4 561,8</t>
+  </si>
+  <si>
+    <t>5 715,8</t>
+  </si>
+  <si>
+    <t>Bh</t>
+  </si>
+  <si>
+    <t>bohrium</t>
+  </si>
+  <si>
+    <t>742,9</t>
+  </si>
+  <si>
+    <t>1 688,5</t>
+  </si>
+  <si>
+    <t>2 566,5</t>
+  </si>
+  <si>
+    <t>3 598,9</t>
+  </si>
+  <si>
+    <t>4 727,8</t>
+  </si>
+  <si>
+    <t>5 991,7</t>
+  </si>
+  <si>
+    <t>7 226,8</t>
+  </si>
+  <si>
+    <t>Hs</t>
+  </si>
+  <si>
+    <t>hassium</t>
+  </si>
+  <si>
+    <t>733,3</t>
+  </si>
+  <si>
+    <t>1 756,0</t>
+  </si>
+  <si>
+    <t>2 827,0</t>
+  </si>
+  <si>
+    <t>3 637,5</t>
+  </si>
+  <si>
+    <t>4 940,0</t>
+  </si>
+  <si>
+    <t>6 175,1</t>
+  </si>
+  <si>
+    <t>7 535,5</t>
+  </si>
+  <si>
+    <t>8 857,4</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>meitnérium</t>
+  </si>
+  <si>
+    <t>800,8</t>
+  </si>
+  <si>
+    <t>1 823,6</t>
+  </si>
+  <si>
+    <t>2 904,2</t>
+  </si>
+  <si>
+    <t>3 859,4</t>
+  </si>
+  <si>
+    <t>4 920,8</t>
+  </si>
+  <si>
+    <t>Ds</t>
+  </si>
+  <si>
+    <t>darmstadtium</t>
+  </si>
+  <si>
+    <t>955,2</t>
+  </si>
+  <si>
+    <t>1 891,1</t>
+  </si>
+  <si>
+    <t>3 029,6</t>
+  </si>
+  <si>
+    <t>3 955,9</t>
+  </si>
+  <si>
+    <t>5 113,7</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>roentgenium</t>
+  </si>
+  <si>
+    <t>1 022,7</t>
+  </si>
+  <si>
+    <t>2 074,4</t>
+  </si>
+  <si>
+    <t>4 052,4</t>
+  </si>
+  <si>
+    <t>5 306,7</t>
+  </si>
+  <si>
+    <t>Cn</t>
+  </si>
+  <si>
+    <t>copernicium</t>
+  </si>
+  <si>
+    <t>1 154,9</t>
+  </si>
+  <si>
+    <t>2 170,0</t>
+  </si>
+  <si>
+    <t>3 164,7</t>
+  </si>
+  <si>
+    <t>4 245,4</t>
+  </si>
+  <si>
+    <t>5 499,7</t>
+  </si>
+  <si>
+    <t>Nh</t>
+  </si>
+  <si>
+    <t>nihonium</t>
+  </si>
+  <si>
+    <t>704,9</t>
+  </si>
+  <si>
+    <t>2 238,5</t>
+  </si>
+  <si>
+    <t>3 023,3</t>
+  </si>
+  <si>
+    <t>4 351,5</t>
+  </si>
+  <si>
+    <t>5 692,6</t>
+  </si>
+  <si>
+    <t>Fl</t>
+  </si>
+  <si>
+    <t>flérovium</t>
+  </si>
+  <si>
+    <t>823,9</t>
+  </si>
+  <si>
+    <t>1 601,6</t>
+  </si>
+  <si>
+    <t>3 367,3</t>
+  </si>
+  <si>
+    <t>4 399,7</t>
+  </si>
+  <si>
+    <t>5 847,0</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>moscovium</t>
+  </si>
+  <si>
+    <t>538,4</t>
+  </si>
+  <si>
+    <t>2 653,3</t>
+  </si>
+  <si>
+    <t>4 679,5</t>
+  </si>
+  <si>
+    <t>5 721,6</t>
+  </si>
+  <si>
+    <t>Lv</t>
+  </si>
+  <si>
+    <t>livermorium</t>
+  </si>
+  <si>
+    <t>723,6</t>
+  </si>
+  <si>
+    <t>1 331,5</t>
+  </si>
+  <si>
+    <t>2 846,3</t>
+  </si>
+  <si>
+    <t>3 811,2</t>
+  </si>
+  <si>
+    <t>6 078,6</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>tennesse</t>
+  </si>
+  <si>
+    <t>1785,0–</t>
+  </si>
+  <si>
+    <t>1920,1</t>
+  </si>
+  <si>
+    <t>Og</t>
+  </si>
+  <si>
+    <t>oganesson</t>
+  </si>
+  <si>
+    <t>839,4</t>
+  </si>
+  <si>
+    <t>1 563,1</t>
+  </si>
+  <si>
+    <t>Uue</t>
+  </si>
+  <si>
+    <t>ununennium</t>
+  </si>
+  <si>
+    <t>463,1</t>
+  </si>
+  <si>
+    <t>1 698,1</t>
+  </si>
+  <si>
+    <t>Ubn</t>
+  </si>
+  <si>
+    <t>unbinilium</t>
+  </si>
+  <si>
+    <t>578,9</t>
+  </si>
+  <si>
+    <t>895,4–</t>
+  </si>
+  <si>
+    <t>918,5</t>
+  </si>
+  <si>
+    <t>Ubu</t>
+  </si>
+  <si>
+    <t>unbiunium</t>
+  </si>
+  <si>
+    <t>429,4</t>
+  </si>
+  <si>
+    <t>Ubb</t>
+  </si>
+  <si>
+    <t>unbibium</t>
+  </si>
+  <si>
+    <t>540,4</t>
+  </si>
+  <si>
+    <t>1 090,4</t>
+  </si>
+  <si>
+    <t>1 968,5</t>
+  </si>
+  <si>
+    <t>2 618,9</t>
+  </si>
+  <si>
+    <t>159 076</t>
+  </si>
+  <si>
+    <t>169 988</t>
+  </si>
+  <si>
+    <t>189 368</t>
+  </si>
+  <si>
+    <t>42 647</t>
+  </si>
+  <si>
+    <t>201 266</t>
+  </si>
+  <si>
+    <t>222 316</t>
+  </si>
+  <si>
+    <t>45 962</t>
+  </si>
+  <si>
+    <t>50 502</t>
+  </si>
+  <si>
+    <t>235 196</t>
+  </si>
+  <si>
+    <t>257 923</t>
+  </si>
+  <si>
+    <t>46 261</t>
+  </si>
+  <si>
+    <t>54 110</t>
+  </si>
+  <si>
+    <t>59 024</t>
+  </si>
+  <si>
+    <t>271 791</t>
+  </si>
+  <si>
+    <t>296 195</t>
+  </si>
+  <si>
+    <t>48 710</t>
+  </si>
+  <si>
+    <t>54 460</t>
+  </si>
+  <si>
+    <t>62 930</t>
+  </si>
+  <si>
+    <t>68 216</t>
+  </si>
+  <si>
+    <t>311 048</t>
+  </si>
+  <si>
+    <t>337 138</t>
+  </si>
+  <si>
+    <t>51 068</t>
+  </si>
+  <si>
+    <t>57 119</t>
+  </si>
+  <si>
+    <t>63 363</t>
+  </si>
+  <si>
+    <t>72 341</t>
+  </si>
+  <si>
+    <t>78 095</t>
+  </si>
+  <si>
+    <t>352 994</t>
+  </si>
+  <si>
+    <t>380 760</t>
+  </si>
+  <si>
+    <t>52 002</t>
+  </si>
+  <si>
+    <t>59 653</t>
+  </si>
+  <si>
+    <t>66 199</t>
+  </si>
+  <si>
+    <t>72 918</t>
+  </si>
+  <si>
+    <t>82 473</t>
+  </si>
+  <si>
+    <t>88 576</t>
+  </si>
+  <si>
+    <t>397 605</t>
+  </si>
+  <si>
+    <t>427 066</t>
+  </si>
+  <si>
+    <t>54 490</t>
+  </si>
+  <si>
+    <t>60 730</t>
+  </si>
+  <si>
+    <t>68 950</t>
+  </si>
+  <si>
+    <t>75 900</t>
+  </si>
+  <si>
+    <t>83 080</t>
+  </si>
+  <si>
+    <t>93 400</t>
+  </si>
+  <si>
+    <t>99 710</t>
+  </si>
+  <si>
+    <t>444 880</t>
+  </si>
+  <si>
+    <t>476 063</t>
+  </si>
+  <si>
+    <t>57 110</t>
+  </si>
+  <si>
+    <t>63 410</t>
+  </si>
+  <si>
+    <t>70 110</t>
+  </si>
+  <si>
+    <t>78 890</t>
+  </si>
+  <si>
+    <t>86 310</t>
+  </si>
+  <si>
+    <t>94 000</t>
+  </si>
+  <si>
+    <t>104 900</t>
+  </si>
+  <si>
+    <t>111 711</t>
+  </si>
+  <si>
+    <t>494 850</t>
+  </si>
+  <si>
+    <t>527 762</t>
+  </si>
+  <si>
+    <t>24 102</t>
+  </si>
+  <si>
+    <t>66 320</t>
+  </si>
+  <si>
+    <t>73 010</t>
+  </si>
+  <si>
+    <t>80 160</t>
+  </si>
+  <si>
+    <t>89 490</t>
+  </si>
+  <si>
+    <t>97 400</t>
+  </si>
+  <si>
+    <t>105 600</t>
+  </si>
+  <si>
+    <t>117 000</t>
+  </si>
+  <si>
+    <t>124 270</t>
+  </si>
+  <si>
+    <t>547 530</t>
+  </si>
+  <si>
+    <t>25 575</t>
+  </si>
+  <si>
+    <t>28 125</t>
+  </si>
+  <si>
+    <t>76 015</t>
+  </si>
+  <si>
+    <t>83 280</t>
+  </si>
+  <si>
+    <t>90 880</t>
+  </si>
+  <si>
+    <t>100 700</t>
+  </si>
+  <si>
+    <t>109 100</t>
+  </si>
+  <si>
+    <t>117 800</t>
+  </si>
+  <si>
+    <t>129 900</t>
+  </si>
+  <si>
+    <t>137 530</t>
+  </si>
+  <si>
+    <t>24 670</t>
+  </si>
+  <si>
+    <t>29 730</t>
+  </si>
+  <si>
+    <t>32 446</t>
+  </si>
+  <si>
+    <t>86 450</t>
+  </si>
+  <si>
+    <t>94 170</t>
+  </si>
+  <si>
+    <t>102 300</t>
+  </si>
+  <si>
+    <t>112 700</t>
+  </si>
+  <si>
+    <t>121 600</t>
+  </si>
+  <si>
+    <t>130 700</t>
+  </si>
+  <si>
+    <t>143 400</t>
+  </si>
+  <si>
+    <t>26 130</t>
+  </si>
+  <si>
+    <t>28 750</t>
+  </si>
+  <si>
+    <t>34 230</t>
+  </si>
+  <si>
+    <t>37 066</t>
+  </si>
+  <si>
+    <t>97 510</t>
+  </si>
+  <si>
+    <t>105 800</t>
+  </si>
+  <si>
+    <t>114 300</t>
+  </si>
+  <si>
+    <t>125 300</t>
+  </si>
+  <si>
+    <t>134 700</t>
+  </si>
+  <si>
+    <t>144 300</t>
+  </si>
+  <si>
+    <t>27 590</t>
+  </si>
+  <si>
+    <t>30 330</t>
+  </si>
+  <si>
+    <t>33 150</t>
+  </si>
+  <si>
+    <t>38 880</t>
+  </si>
+  <si>
+    <t>41 987</t>
+  </si>
+  <si>
+    <t>109 480</t>
+  </si>
+  <si>
+    <t>118 100</t>
+  </si>
+  <si>
+    <t>127 100</t>
+  </si>
+  <si>
+    <t>138 600</t>
+  </si>
+  <si>
+    <t>148 500</t>
+  </si>
+  <si>
+    <t>28 000</t>
+  </si>
+  <si>
+    <t>31 920</t>
+  </si>
+  <si>
+    <t>34 830</t>
+  </si>
+  <si>
+    <t>37 840</t>
+  </si>
+  <si>
+    <t>44 100</t>
+  </si>
+  <si>
+    <t>47 206</t>
+  </si>
+  <si>
+    <t>122 200</t>
+  </si>
+  <si>
+    <t>131 000</t>
+  </si>
+  <si>
+    <t>140 500</t>
+  </si>
+  <si>
+    <t>152 600</t>
+  </si>
+  <si>
+    <t>29 400</t>
+  </si>
+  <si>
+    <t>32 400</t>
+  </si>
+  <si>
+    <t>36 600</t>
+  </si>
+  <si>
+    <t>39 700</t>
+  </si>
+  <si>
+    <t>42 800</t>
+  </si>
+  <si>
+    <t>49 396</t>
+  </si>
+  <si>
+    <t>52 737</t>
+  </si>
+  <si>
+    <t>134 810</t>
+  </si>
+  <si>
+    <t>145 170</t>
+  </si>
+  <si>
+    <t>154 700</t>
+  </si>
+  <si>
+    <t>30 970</t>
+  </si>
+  <si>
+    <t>34 000</t>
+  </si>
+  <si>
+    <t>37 100</t>
+  </si>
+  <si>
+    <t>41 500</t>
+  </si>
+  <si>
+    <t>44 800</t>
+  </si>
+  <si>
+    <t>48 100</t>
+  </si>
+  <si>
+    <t>55 101</t>
+  </si>
+  <si>
+    <t>58 570</t>
+  </si>
+  <si>
+    <t>148 700</t>
+  </si>
+  <si>
+    <t>159 000</t>
+  </si>
+  <si>
+    <t>25 600</t>
+  </si>
+  <si>
+    <t>35 600</t>
+  </si>
+  <si>
+    <t>38 700</t>
+  </si>
+  <si>
+    <t>42 000</t>
+  </si>
+  <si>
+    <t>46 700</t>
+  </si>
+  <si>
+    <t>50 200</t>
+  </si>
+  <si>
+    <t>53 700</t>
+  </si>
+  <si>
+    <t>61 100</t>
+  </si>
+  <si>
+    <t>64 702</t>
+  </si>
+  <si>
+    <t>163 700</t>
+  </si>
+  <si>
+    <t>26 400</t>
+  </si>
+  <si>
+    <t>29 990</t>
+  </si>
+  <si>
+    <t>40 490</t>
+  </si>
+  <si>
+    <t>43 800</t>
+  </si>
+  <si>
+    <t>47 300</t>
+  </si>
+  <si>
+    <t>52 300</t>
+  </si>
+  <si>
+    <t>55 900</t>
+  </si>
+  <si>
+    <t>59 700</t>
+  </si>
+  <si>
+    <t>67 300</t>
+  </si>
+  <si>
+    <t>171 200</t>
+  </si>
+  <si>
+    <t>29 700</t>
+  </si>
+  <si>
+    <t>33 800</t>
+  </si>
+  <si>
+    <t>37 700</t>
+  </si>
+  <si>
+    <t>43 100</t>
+  </si>
+  <si>
+    <t>47 500</t>
+  </si>
+  <si>
+    <t>52 200</t>
+  </si>
+  <si>
+    <t>57 100</t>
+  </si>
+  <si>
+    <t>61 800</t>
+  </si>
+  <si>
+    <t>75 800</t>
+  </si>
+  <si>
+    <t>80 400</t>
+  </si>
+  <si>
+    <t>31 270</t>
+  </si>
+  <si>
+    <t>19 900</t>
+  </si>
+  <si>
+    <t>36 090</t>
+  </si>
+  <si>
+    <t>22 219</t>
+  </si>
+  <si>
+    <t>26 930</t>
+  </si>
+  <si>
+    <t>29 196</t>
+  </si>
+  <si>
+    <t>52 490</t>
+  </si>
+  <si>
+    <t>55 000</t>
+  </si>
+  <si>
+    <t>61 400</t>
+  </si>
+  <si>
+    <t>67 700</t>
+  </si>
+  <si>
+    <t>74 000</t>
+  </si>
+  <si>
+    <t>582 163</t>
+  </si>
+  <si>
+    <t>602 930</t>
+  </si>
+  <si>
+    <t>639 294</t>
+  </si>
+  <si>
+    <t>151 440</t>
+  </si>
+  <si>
+    <t>661 050</t>
+  </si>
+  <si>
+    <t>699 144</t>
+  </si>
+  <si>
+    <t>157 700</t>
+  </si>
+  <si>
+    <t>166 090</t>
+  </si>
+  <si>
+    <t>721 870</t>
+  </si>
+  <si>
+    <t>761 733</t>
+  </si>
+  <si>
+    <t>158 600</t>
+  </si>
+  <si>
+    <t>172 500</t>
+  </si>
+  <si>
+    <t>181 380</t>
+  </si>
+  <si>
+    <t>785 450</t>
+  </si>
+  <si>
+    <t>827 067</t>
+  </si>
+  <si>
+    <t>163 000</t>
+  </si>
+  <si>
+    <t>173 600</t>
+  </si>
+  <si>
+    <t>188 100</t>
+  </si>
+  <si>
+    <t>195 200</t>
+  </si>
+  <si>
+    <t>851 800</t>
+  </si>
+  <si>
+    <t>895 161</t>
+  </si>
+  <si>
+    <t>167 400</t>
+  </si>
+  <si>
+    <t>178 100</t>
+  </si>
+  <si>
+    <t>189 300</t>
+  </si>
+  <si>
+    <t>204 500</t>
+  </si>
+  <si>
+    <t>214 100</t>
+  </si>
+  <si>
+    <t>920 870</t>
+  </si>
+  <si>
+    <t>966 023</t>
+  </si>
+  <si>
+    <t>169 400</t>
+  </si>
+  <si>
+    <t>182 700</t>
+  </si>
+  <si>
+    <t>194 000</t>
+  </si>
+  <si>
+    <t>205 600</t>
+  </si>
+  <si>
+    <t>221 400</t>
+  </si>
+  <si>
+    <t>231 490</t>
+  </si>
+  <si>
+    <t>992 718</t>
+  </si>
+  <si>
+    <t>1 039 668</t>
+  </si>
+  <si>
+    <t>174 100</t>
+  </si>
+  <si>
+    <t>184 900</t>
+  </si>
+  <si>
+    <t>198 800</t>
+  </si>
+  <si>
+    <t>210 500</t>
+  </si>
+  <si>
+    <t>222 700</t>
+  </si>
+  <si>
+    <t>239 100</t>
+  </si>
+  <si>
+    <t>249 660</t>
+  </si>
+  <si>
+    <t>1 067 358</t>
+  </si>
+  <si>
+    <t>1 116 105</t>
+  </si>
+  <si>
+    <t>179 100</t>
+  </si>
+  <si>
+    <t>85 300</t>
+  </si>
+  <si>
+    <t>90 400</t>
+  </si>
+  <si>
+    <t>96 300</t>
+  </si>
+  <si>
+    <t>101 400</t>
+  </si>
+  <si>
+    <t>111 100</t>
+  </si>
+  <si>
+    <t>116 290</t>
+  </si>
+  <si>
+    <t>282 500</t>
+  </si>
+  <si>
+    <t>296 200</t>
+  </si>
+  <si>
+    <t>311 400</t>
+  </si>
+  <si>
+    <t>326 200</t>
+  </si>
+  <si>
+    <t>87 000</t>
+  </si>
+  <si>
+    <t>98 420</t>
+  </si>
+  <si>
+    <t>104 400</t>
+  </si>
+  <si>
+    <t>121 900</t>
+  </si>
+  <si>
+    <t>127 700</t>
+  </si>
+  <si>
+    <t>133 800</t>
+  </si>
+  <si>
+    <t>139 800</t>
+  </si>
+  <si>
+    <t>148 100</t>
+  </si>
+  <si>
+    <t>154 500</t>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ionization energies </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 16</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 17</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 19</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 24</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 26</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 27</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 28</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ionization energies 30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16233,6 +19759,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -16308,7 +19863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -16332,6 +19887,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -16340,6 +19908,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23416,8 +26990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB7D98-0D6C-45C6-BB39-1AD6CF8D6BE5}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35257,8 +38831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B292B1D2-3649-4ECC-9625-418B23F7AF68}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40125,13 +43699,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0828B-6EB1-4B0B-98DD-BBE219FCC5D7}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -40248,7 +43824,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -40552,7 +44128,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -40894,7 +44470,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -42224,7 +45800,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -42262,7 +45838,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -43440,7 +47016,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -44087,49 +47663,49 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F105" s="9"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F106" s="10"/>
+      <c r="F106" s="15"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F107" s="10"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F108" s="10"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F109" s="10"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F110" s="10"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F111" s="10"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F112" s="10"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" s="10"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="10"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="10"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="10"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="10"/>
+      <c r="F117" s="15"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="10"/>
+      <c r="F118" s="15"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="11"/>
+      <c r="F119" s="16"/>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="4"/>
@@ -44151,11 +47727,4353 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F0620D-9E12-401C-A47E-4102C39AB5C2}">
+  <dimension ref="A1:AG125"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3903</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>3904</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>3905</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>3906</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>3907</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>3908</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>3909</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>3910</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>3911</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>3912</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>3913</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>3914</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>3915</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>3916</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>3917</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>3918</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>3919</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>3920</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>3921</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>3922</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>3923</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>3924</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>3925</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>3926</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>3927</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>3928</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>3929</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2931</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>2932</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>2945</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>2946</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2952</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>2953</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>2954</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>2955</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>2956</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2961</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>2962</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>2963</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>2964</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>2966</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2971</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>2972</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>2974</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>2975</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>2976</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>2977</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>2982</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>2983</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>2984</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>2985</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>2986</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>2987</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>2988</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2992</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2993</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>2994</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>2995</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>2996</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>2998</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>2999</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>3661</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3002</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>3003</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>3004</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>3005</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>3007</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>3010</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>3663</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>3664</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>3014</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>3015</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>3016</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>3018</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>3019</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>3020</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>3021</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>3666</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>3667</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>3668</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>3025</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>3026</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>3027</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>3030</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>3031</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>3032</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>3670</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>3671</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>3672</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>3673</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>3036</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>3037</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>3038</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>3039</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>3040</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>3041</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>3042</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>3043</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>3675</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>3676</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>3677</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>3678</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>3679</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>3048</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>3049</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>3050</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>3051</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>3052</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>3053</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>3054</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>3681</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>3682</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>3683</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>3684</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>3685</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>3686</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>3057</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>3059</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>3060</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>3061</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>3062</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>3063</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>3064</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>3065</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>3688</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>3689</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>3690</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>3691</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>3692</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>3693</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>3694</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>3068</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>3069</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>3070</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>3072</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>3073</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>3074</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>3075</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>3076</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>3696</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>3697</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>3698</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>3699</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>3700</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>3701</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>3702</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>3703</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>3079</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>3080</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>3081</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>3082</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>3083</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>3084</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>3085</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>3087</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>3705</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>3706</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>3707</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>3708</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>3709</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>3710</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>3711</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>3713</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3091</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>3092</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>3093</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>3094</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>3095</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>3096</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>3097</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>3098</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>3715</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>3716</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>3717</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>3718</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>3719</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>3720</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>3721</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>3722</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>3723</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>3724</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>3103</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>3104</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>3105</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>3106</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>3107</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>3108</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>3109</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>3725</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>3726</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>3727</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>3728</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>3729</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>3730</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>3731</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>3732</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>3733</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>3734</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>3837</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>3114</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>3115</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>3116</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>3117</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>3118</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>3119</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>3120</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>3735</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>3736</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>3737</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>3738</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>3739</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>3740</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>3741</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>3742</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>3743</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>3744</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>3839</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>3840</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>3124</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>3125</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>3126</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>3127</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>3128</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>3129</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>3130</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>3131</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>3745</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>3746</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>3747</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>3748</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>3749</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>3750</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>3751</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>3752</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>3753</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>3754</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>3842</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>3843</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>3844</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>3136</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>3137</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>3138</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>3139</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>3140</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>3141</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>3142</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>3755</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>3756</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>3757</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>3758</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>3759</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>3760</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>3761</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>3762</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>3763</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>3764</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>3846</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>3847</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>3848</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>3849</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>3146</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>3147</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>3148</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>3149</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>3150</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>3151</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>3152</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>3153</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>3765</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>3766</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>3767</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>3768</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>3769</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>3770</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>3771</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>3772</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>3773</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>3774</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>3851</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>3852</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>3853</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>3854</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>3855</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>3156</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>3157</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>3158</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>3160</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>3161</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>3162</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>3164</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>3775</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>3776</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>3777</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>3778</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>3779</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>3780</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>3781</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>3782</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>3783</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>3784</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>3857</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>3858</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>3859</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>3860</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>3861</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>3862</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>3166</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>3168</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>3170</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>3171</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>3172</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>3173</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>3174</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>3175</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>3785</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>3786</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>3787</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>3788</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>3789</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>3790</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>3791</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>3792</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>3793</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>3794</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>3864</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>3865</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>3866</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>3867</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>3869</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>3870</v>
+      </c>
+      <c r="AE29" s="11" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>3181</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>3182</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>3183</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>3184</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>3185</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>3186</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>3795</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>3796</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>3797</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>3798</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>3799</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>3800</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>3801</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>3802</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>3803</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>3804</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>3872</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>3873</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>3874</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>3876</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>3877</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>3878</v>
+      </c>
+      <c r="AE30" s="11" t="s">
+        <v>3879</v>
+      </c>
+      <c r="AF30" s="11" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>3171</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>3193</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>3194</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>3195</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>3196</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>3805</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>3806</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>3808</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>3809</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>3810</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>3811</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>3812</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>3813</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>3814</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>3201</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="12"/>
+    </row>
+    <row r="33" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D33" s="11">
+        <v>762</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>3206</v>
+      </c>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="12"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>3210</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>3211</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>3212</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>3213</v>
+      </c>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="12"/>
+    </row>
+    <row r="35" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>3217</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>3218</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>3219</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>3220</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>3221</v>
+      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="12"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>3225</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>3226</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>3227</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>3228</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>3229</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>3174</v>
+      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="12"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>3233</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>3234</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>3235</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>3236</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>3237</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>3238</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>3239</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>3240</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>3815</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>3816</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>3817</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>3818</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>3819</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>3820</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>3821</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>3822</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>3823</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>3824</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>3882</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>3883</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>3884</v>
+      </c>
+      <c r="AA37" s="11" t="s">
+        <v>3885</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>3886</v>
+      </c>
+      <c r="AC37" s="11" t="s">
+        <v>3887</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>3888</v>
+      </c>
+      <c r="AE37" s="11" t="s">
+        <v>3889</v>
+      </c>
+      <c r="AF37" s="11" t="s">
+        <v>3890</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>3245</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>3247</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>3249</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>3250</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>3255</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>3259</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>3260</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>3173</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>3261</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>3825</v>
+      </c>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="12"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D40" s="11">
+        <v>600</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>3264</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>3265</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>3268</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>3269</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>3270</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>3271</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>3826</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>3827</v>
+      </c>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="12"/>
+    </row>
+    <row r="41" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>3275</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>3277</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>3278</v>
+      </c>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="12"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>3282</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>3283</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>3284</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>3286</v>
+      </c>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="12"/>
+    </row>
+    <row r="43" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>3291</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>3292</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>3295</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>3296</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>3297</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>3130</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>3828</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>3829</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>3830</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>3831</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>3832</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>3833</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>3834</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>3835</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>3824</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>3892</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>3701</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>3893</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>3894</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>3895</v>
+      </c>
+      <c r="AC43" s="11" t="s">
+        <v>3896</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>3897</v>
+      </c>
+      <c r="AE43" s="11" t="s">
+        <v>3898</v>
+      </c>
+      <c r="AF43" s="11" t="s">
+        <v>3899</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D44" s="11">
+        <v>702</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>3329</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>3330</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D52" s="11">
+        <v>834</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>3335</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>3336</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>3341</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>3343</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>3362</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>3364</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>3365</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>3371</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>3372</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D60" s="11">
+        <v>527</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>3375</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>3382</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D62" s="11">
+        <v>540</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>3385</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>3400</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3417</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>3419</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>3423</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>3427</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D74" s="11">
+        <v>761</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D75" s="11">
+        <v>770</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D76" s="11">
+        <v>760</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>3445</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D77" s="11">
+        <v>840</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D78" s="11">
+        <v>880</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D79" s="11">
+        <v>870</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>3466</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>3467</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D84" s="11">
+        <v>703</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>3471</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>3336</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D86" s="13">
+        <v>899003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D88" s="11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D90" s="11">
+        <v>499</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>3483</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D91" s="11">
+        <v>587</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>3486</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D92" s="11">
+        <v>568</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>3483</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D96" s="11">
+        <v>578</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>3506</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D97" s="11">
+        <v>581</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>3510</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D98" s="11">
+        <v>601</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D99" s="11">
+        <v>608</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>3518</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D100" s="11">
+        <v>619</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>3522</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D101" s="11">
+        <v>627</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D102" s="11">
+        <v>635</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>3529</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D103" s="11">
+        <v>642</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D104" s="11">
+        <v>470</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>3538</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>3543</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>3550</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>3551</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>3557</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>3558</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>3564</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>3566</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>3567</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>3568</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>3573</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>3574</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>3575</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>3576</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>3577</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>3578</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>3582</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>3583</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>3585</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>3590</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>3592</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>3596</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>3597</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>3545</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>3598</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>3605</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>3612</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>3617</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>3618</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>3619</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>3622</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>3623</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>3573</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>3624</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>3625</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>3630</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>3631</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>3632</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="17">
+        <v>117</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="11" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>118</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>119</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="17">
+        <v>120</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="11" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>121</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>122</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>3656</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>3657</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>3658</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" tooltip="Hydrogène" display="https://fr.wikipedia.org/wiki/Hydrog%C3%A8ne" xr:uid="{38E15163-D1E2-4809-A1DE-5AEA0189E269}"/>
+    <hyperlink ref="C3" r:id="rId2" tooltip="Hélium" display="https://fr.wikipedia.org/wiki/H%C3%A9lium" xr:uid="{08B327F6-3A62-4468-B5F2-19D7486C1319}"/>
+    <hyperlink ref="C4" r:id="rId3" tooltip="Lithium" display="https://fr.wikipedia.org/wiki/Lithium" xr:uid="{56C24738-31DC-4E1E-A4AA-CB12F3EB137B}"/>
+    <hyperlink ref="C5" r:id="rId4" tooltip="Béryllium" display="https://fr.wikipedia.org/wiki/B%C3%A9ryllium" xr:uid="{D14AAD7C-D3E5-448C-8540-200E5A841858}"/>
+    <hyperlink ref="C6" r:id="rId5" tooltip="Bore" display="https://fr.wikipedia.org/wiki/Bore" xr:uid="{DBD9D8BD-B97E-4C9B-9738-0D58303DC2A4}"/>
+    <hyperlink ref="C7" r:id="rId6" tooltip="Carbone" display="https://fr.wikipedia.org/wiki/Carbone" xr:uid="{7051D7D9-6F1B-470A-8862-E60CB8E1F9CE}"/>
+    <hyperlink ref="C8" r:id="rId7" tooltip="Azote" display="https://fr.wikipedia.org/wiki/Azote" xr:uid="{616A374B-6D63-4CC0-81F6-D2E65D9D4C2F}"/>
+    <hyperlink ref="C9" r:id="rId8" tooltip="Oxygène" display="https://fr.wikipedia.org/wiki/Oxyg%C3%A8ne" xr:uid="{F48F84F4-4979-4827-A0F0-B7A67213F746}"/>
+    <hyperlink ref="C10" r:id="rId9" tooltip="Fluor" display="https://fr.wikipedia.org/wiki/Fluor" xr:uid="{88E391B2-1A8B-4015-9B57-A762C455DF14}"/>
+    <hyperlink ref="C11" r:id="rId10" tooltip="Néon" display="https://fr.wikipedia.org/wiki/N%C3%A9on" xr:uid="{08CC6DC3-3C73-4FD8-8D6A-9377A77297F9}"/>
+    <hyperlink ref="C12" r:id="rId11" tooltip="Sodium" display="https://fr.wikipedia.org/wiki/Sodium" xr:uid="{223989A6-8FDE-422B-8037-A049061D9605}"/>
+    <hyperlink ref="C13" r:id="rId12" tooltip="Magnésium" display="https://fr.wikipedia.org/wiki/Magn%C3%A9sium" xr:uid="{60A5D210-138B-42C4-A8E4-6914BAD6BF1A}"/>
+    <hyperlink ref="C14" r:id="rId13" tooltip="Aluminium" display="https://fr.wikipedia.org/wiki/Aluminium" xr:uid="{3C9BBFD0-006B-4D1B-AE84-A8BCFA0A252F}"/>
+    <hyperlink ref="C15" r:id="rId14" tooltip="Silicium" display="https://fr.wikipedia.org/wiki/Silicium" xr:uid="{C4CBBB6D-C288-4553-9E31-F55F3C86B447}"/>
+    <hyperlink ref="C16" r:id="rId15" tooltip="Phosphore" display="https://fr.wikipedia.org/wiki/Phosphore" xr:uid="{6BD53A5B-C32D-43ED-A912-B5CC776F481C}"/>
+    <hyperlink ref="C17" r:id="rId16" tooltip="Soufre" display="https://fr.wikipedia.org/wiki/Soufre" xr:uid="{B9A32E47-578C-4C36-B64C-2132DE168533}"/>
+    <hyperlink ref="C18" r:id="rId17" tooltip="Chlore" display="https://fr.wikipedia.org/wiki/Chlore" xr:uid="{9EA5308E-B282-4EC0-BD95-1833E7D08C31}"/>
+    <hyperlink ref="C19" r:id="rId18" tooltip="Argon" display="https://fr.wikipedia.org/wiki/Argon" xr:uid="{C09BCC19-5A20-44A0-99E1-3EC93A2CF585}"/>
+    <hyperlink ref="C20" r:id="rId19" tooltip="Potassium" display="https://fr.wikipedia.org/wiki/Potassium" xr:uid="{B91B7856-D790-4D0C-80F9-21BD65064983}"/>
+    <hyperlink ref="C21" r:id="rId20" tooltip="Calcium" display="https://fr.wikipedia.org/wiki/Calcium" xr:uid="{2BB0A39C-7DE0-4F5F-8277-C97FE33984F2}"/>
+    <hyperlink ref="C22" r:id="rId21" tooltip="Scandium" display="https://fr.wikipedia.org/wiki/Scandium" xr:uid="{A0F9E41B-F930-43CC-AA37-1701B9F9626D}"/>
+    <hyperlink ref="C23" r:id="rId22" tooltip="Titane" display="https://fr.wikipedia.org/wiki/Titane" xr:uid="{DDAAB4BB-30CF-4FE6-B13F-8B6020A69F6F}"/>
+    <hyperlink ref="C24" r:id="rId23" tooltip="Vanadium" display="https://fr.wikipedia.org/wiki/Vanadium" xr:uid="{11984450-139F-4DFB-B9E7-518BE8F959B1}"/>
+    <hyperlink ref="C25" r:id="rId24" tooltip="Chrome" display="https://fr.wikipedia.org/wiki/Chrome" xr:uid="{1254E44C-2319-42F8-BB96-DF432ACCA97D}"/>
+    <hyperlink ref="C26" r:id="rId25" tooltip="Manganèse" display="https://fr.wikipedia.org/wiki/Mangan%C3%A8se" xr:uid="{B3CC7F07-A51F-4002-9572-ADCD19CE46AF}"/>
+    <hyperlink ref="C27" r:id="rId26" tooltip="Fer" display="https://fr.wikipedia.org/wiki/Fer" xr:uid="{84A6421B-4066-4648-8B19-B80F66B59ECB}"/>
+    <hyperlink ref="C28" r:id="rId27" tooltip="Cobalt" display="https://fr.wikipedia.org/wiki/Cobalt" xr:uid="{98A80E64-CAB2-4AE3-81C0-634636B1F132}"/>
+    <hyperlink ref="C29" r:id="rId28" tooltip="Nickel" display="https://fr.wikipedia.org/wiki/Nickel" xr:uid="{9E51576F-CE61-471A-816A-8BA4161E35E5}"/>
+    <hyperlink ref="C30" r:id="rId29" tooltip="Cuivre" display="https://fr.wikipedia.org/wiki/Cuivre" xr:uid="{E546C715-748D-44A2-85F3-36DC5C9A1214}"/>
+    <hyperlink ref="C31" r:id="rId30" tooltip="Zinc" display="https://fr.wikipedia.org/wiki/Zinc" xr:uid="{5DE87E3B-DEDD-4584-80CA-A18C974840B9}"/>
+    <hyperlink ref="C32" r:id="rId31" tooltip="Gallium" display="https://fr.wikipedia.org/wiki/Gallium" xr:uid="{C5EBB103-EA91-4095-8635-8C3BDA98625B}"/>
+    <hyperlink ref="C33" r:id="rId32" tooltip="Germanium" display="https://fr.wikipedia.org/wiki/Germanium" xr:uid="{DB27EC37-911A-416A-88A5-547B95732AFD}"/>
+    <hyperlink ref="C34" r:id="rId33" tooltip="Arsenic" display="https://fr.wikipedia.org/wiki/Arsenic" xr:uid="{58FE1314-0067-410C-AC05-004BC7B049F4}"/>
+    <hyperlink ref="C35" r:id="rId34" tooltip="Sélénium" display="https://fr.wikipedia.org/wiki/S%C3%A9l%C3%A9nium" xr:uid="{E6D68ECD-1590-45AE-8021-9131476DFE4A}"/>
+    <hyperlink ref="C36" r:id="rId35" tooltip="Brome" display="https://fr.wikipedia.org/wiki/Brome" xr:uid="{5DC1EF97-0AEF-4E8A-8995-33CBA204FFCF}"/>
+    <hyperlink ref="C37" r:id="rId36" tooltip="Krypton" display="https://fr.wikipedia.org/wiki/Krypton" xr:uid="{DC63925C-A128-4496-84A6-1C829CD14C5A}"/>
+    <hyperlink ref="C38" r:id="rId37" tooltip="Rubidium" display="https://fr.wikipedia.org/wiki/Rubidium" xr:uid="{ED445147-8600-4D3F-B3F5-DE69B14FA204}"/>
+    <hyperlink ref="C39" r:id="rId38" tooltip="Strontium" display="https://fr.wikipedia.org/wiki/Strontium" xr:uid="{7119779B-23F3-4B16-8660-F44C1398DA11}"/>
+    <hyperlink ref="C40" r:id="rId39" tooltip="Yttrium" display="https://fr.wikipedia.org/wiki/Yttrium" xr:uid="{6CA7B56A-3E0D-47B8-9DB5-90E5FBE9A6F7}"/>
+    <hyperlink ref="C41" r:id="rId40" tooltip="Zirconium" display="https://fr.wikipedia.org/wiki/Zirconium" xr:uid="{9A0F1AC9-7395-47DE-8015-4C53F6ACC751}"/>
+    <hyperlink ref="C42" r:id="rId41" tooltip="Niobium" display="https://fr.wikipedia.org/wiki/Niobium" xr:uid="{72D26464-34F6-4624-A85F-37C7AB6F7E39}"/>
+    <hyperlink ref="C43" r:id="rId42" tooltip="Molybdène" display="https://fr.wikipedia.org/wiki/Molybd%C3%A8ne" xr:uid="{4A2DAB09-1398-4E99-BDD1-C4608361A252}"/>
+    <hyperlink ref="C44" r:id="rId43" tooltip="Technétium" display="https://fr.wikipedia.org/wiki/Techn%C3%A9tium" xr:uid="{D9B27EC3-66B0-4A3C-A577-614DD430ABE3}"/>
+    <hyperlink ref="C45" r:id="rId44" tooltip="Ruthénium" display="https://fr.wikipedia.org/wiki/Ruth%C3%A9nium" xr:uid="{87B6805E-3784-494A-8CCF-BDBC6A9FD856}"/>
+    <hyperlink ref="C46" r:id="rId45" tooltip="Rhodium" display="https://fr.wikipedia.org/wiki/Rhodium" xr:uid="{76999C94-BCA7-42E5-8A04-22098079DB53}"/>
+    <hyperlink ref="C47" r:id="rId46" tooltip="Palladium (chimie)" display="https://fr.wikipedia.org/wiki/Palladium_(chimie)" xr:uid="{AC0BDC21-55D9-4549-9BE4-D907483DCF93}"/>
+    <hyperlink ref="C48" r:id="rId47" tooltip="Argent" display="https://fr.wikipedia.org/wiki/Argent" xr:uid="{0EEC8B46-0BE6-4C2D-BDEF-29BDACAACFB3}"/>
+    <hyperlink ref="C49" r:id="rId48" tooltip="Cadmium" display="https://fr.wikipedia.org/wiki/Cadmium" xr:uid="{CB69D0DE-4458-4A03-916B-CE32FA33A2FB}"/>
+    <hyperlink ref="C50" r:id="rId49" tooltip="Indium" display="https://fr.wikipedia.org/wiki/Indium" xr:uid="{7BC7A91A-7D9E-4C75-B20A-87ECF2C73FBF}"/>
+    <hyperlink ref="C51" r:id="rId50" tooltip="Étain" display="https://fr.wikipedia.org/wiki/%C3%89tain" xr:uid="{154BEF3B-2DBC-4106-A096-E7910A4CC502}"/>
+    <hyperlink ref="C52" r:id="rId51" tooltip="Antimoine" display="https://fr.wikipedia.org/wiki/Antimoine" xr:uid="{5845311F-0886-4523-A85D-D85404B4B884}"/>
+    <hyperlink ref="C53" r:id="rId52" tooltip="Tellure" display="https://fr.wikipedia.org/wiki/Tellure" xr:uid="{D02018AA-547A-421A-A694-B531FC6FB023}"/>
+    <hyperlink ref="C54" r:id="rId53" tooltip="Iode" display="https://fr.wikipedia.org/wiki/Iode" xr:uid="{AA7E5707-97D0-4C46-B184-0B6D5B914D78}"/>
+    <hyperlink ref="C55" r:id="rId54" tooltip="Xénon" display="https://fr.wikipedia.org/wiki/X%C3%A9non" xr:uid="{189CD9B2-B0E4-45D6-84F6-CA11DC9D95D2}"/>
+    <hyperlink ref="C56" r:id="rId55" tooltip="Césium" display="https://fr.wikipedia.org/wiki/C%C3%A9sium" xr:uid="{9C40FEA7-8002-4022-8D5F-798C61F264D2}"/>
+    <hyperlink ref="C57" r:id="rId56" tooltip="Baryum" display="https://fr.wikipedia.org/wiki/Baryum" xr:uid="{7EDF78DC-05ED-457E-A61C-13559C03D23D}"/>
+    <hyperlink ref="C58" r:id="rId57" tooltip="Lanthane" display="https://fr.wikipedia.org/wiki/Lanthane" xr:uid="{1466D133-77C9-4793-811A-E84F8F5F4C0D}"/>
+    <hyperlink ref="C59" r:id="rId58" tooltip="Cérium" display="https://fr.wikipedia.org/wiki/C%C3%A9rium" xr:uid="{7AAC4E6E-96EA-423A-B2BD-8A24A13B2B62}"/>
+    <hyperlink ref="C60" r:id="rId59" tooltip="Praséodyme" display="https://fr.wikipedia.org/wiki/Pras%C3%A9odyme" xr:uid="{EACA767B-C3A6-45BB-9400-4B9924F0FA73}"/>
+    <hyperlink ref="C61" r:id="rId60" tooltip="Néodyme" display="https://fr.wikipedia.org/wiki/N%C3%A9odyme" xr:uid="{4834CDC1-9675-46F4-9D0B-1A0E27DCB32B}"/>
+    <hyperlink ref="C62" r:id="rId61" tooltip="Prométhium" display="https://fr.wikipedia.org/wiki/Prom%C3%A9thium" xr:uid="{6E48076E-1B47-4E1D-ABC3-AF5560E6C57C}"/>
+    <hyperlink ref="C63" r:id="rId62" tooltip="Samarium" display="https://fr.wikipedia.org/wiki/Samarium" xr:uid="{F56B15AF-FF8A-4A7D-914D-5C3B958C6F3B}"/>
+    <hyperlink ref="C64" r:id="rId63" tooltip="Europium" display="https://fr.wikipedia.org/wiki/Europium" xr:uid="{3BB24F2B-4DFD-41B1-87B1-8AB4F3A37479}"/>
+    <hyperlink ref="C65" r:id="rId64" tooltip="Gadolinium" display="https://fr.wikipedia.org/wiki/Gadolinium" xr:uid="{5C728FA3-36EA-4EF5-A5DD-651A59A67728}"/>
+    <hyperlink ref="C66" r:id="rId65" tooltip="Terbium" display="https://fr.wikipedia.org/wiki/Terbium" xr:uid="{CF45E950-3823-4D25-9343-E0424F3B61B7}"/>
+    <hyperlink ref="C67" r:id="rId66" tooltip="Dysprosium" display="https://fr.wikipedia.org/wiki/Dysprosium" xr:uid="{1AE1C27B-4431-43F8-9ECA-9E072ADFBE21}"/>
+    <hyperlink ref="C68" r:id="rId67" tooltip="Holmium" display="https://fr.wikipedia.org/wiki/Holmium" xr:uid="{CBDA2468-EFB0-4E78-B564-168C6EA1B6F8}"/>
+    <hyperlink ref="C69" r:id="rId68" tooltip="Erbium" display="https://fr.wikipedia.org/wiki/Erbium" xr:uid="{00FE9C98-1B2F-45C2-9123-C89632741921}"/>
+    <hyperlink ref="C70" r:id="rId69" tooltip="Thulium" display="https://fr.wikipedia.org/wiki/Thulium" xr:uid="{1537E2F6-47E5-42D9-A1AD-D3EF8909FD40}"/>
+    <hyperlink ref="C71" r:id="rId70" tooltip="Ytterbium" display="https://fr.wikipedia.org/wiki/Ytterbium" xr:uid="{BF02EC3F-E30F-4478-B233-6414888B2FC1}"/>
+    <hyperlink ref="C72" r:id="rId71" tooltip="Lutécium" display="https://fr.wikipedia.org/wiki/Lut%C3%A9cium" xr:uid="{83F9B687-13EE-405A-AD68-4430CDDBEC5A}"/>
+    <hyperlink ref="C73" r:id="rId72" tooltip="Hafnium" display="https://fr.wikipedia.org/wiki/Hafnium" xr:uid="{2DDA9304-CBAF-41F4-9037-7CDDB78C7CD1}"/>
+    <hyperlink ref="C74" r:id="rId73" tooltip="Tantale (chimie)" display="https://fr.wikipedia.org/wiki/Tantale_(chimie)" xr:uid="{5A28F6B9-5985-48FC-9037-B937D0FBA3F0}"/>
+    <hyperlink ref="C75" r:id="rId74" tooltip="Tungstène" display="https://fr.wikipedia.org/wiki/Tungst%C3%A8ne" xr:uid="{D7311C7E-06A9-4E19-A08D-3609E8C50713}"/>
+    <hyperlink ref="C76" r:id="rId75" tooltip="Rhénium" display="https://fr.wikipedia.org/wiki/Rh%C3%A9nium" xr:uid="{08F7DFD1-EDF6-4D75-895C-2CF094415954}"/>
+    <hyperlink ref="C77" r:id="rId76" tooltip="Osmium" display="https://fr.wikipedia.org/wiki/Osmium" xr:uid="{0EDA9A5A-C656-460B-A705-267C8087EA37}"/>
+    <hyperlink ref="C78" r:id="rId77" tooltip="Iridium" display="https://fr.wikipedia.org/wiki/Iridium" xr:uid="{D0F8048E-CBEE-4E09-BEBB-209AD690883C}"/>
+    <hyperlink ref="C79" r:id="rId78" tooltip="Platine" display="https://fr.wikipedia.org/wiki/Platine" xr:uid="{610F37F8-DB96-410F-A312-C96AD729DBFC}"/>
+    <hyperlink ref="C80" r:id="rId79" tooltip="Or" display="https://fr.wikipedia.org/wiki/Or" xr:uid="{10550F3F-80B4-4931-B658-EFEDFB040F9A}"/>
+    <hyperlink ref="C81" r:id="rId80" tooltip="Mercure (chimie)" display="https://fr.wikipedia.org/wiki/Mercure_(chimie)" xr:uid="{75E9357B-BF00-4DB3-82F6-74A8260890AE}"/>
+    <hyperlink ref="C82" r:id="rId81" tooltip="Thallium" display="https://fr.wikipedia.org/wiki/Thallium" xr:uid="{72ECE5A8-93E0-4CD4-8182-93C69B04A83A}"/>
+    <hyperlink ref="C83" r:id="rId82" tooltip="Plomb" display="https://fr.wikipedia.org/wiki/Plomb" xr:uid="{050B0D27-61B6-4C9E-AEED-70E17AD0DC70}"/>
+    <hyperlink ref="C84" r:id="rId83" tooltip="Bismuth" display="https://fr.wikipedia.org/wiki/Bismuth" xr:uid="{B8431CEA-6FD9-4317-91B3-6F5C9E3795B9}"/>
+    <hyperlink ref="C85" r:id="rId84" tooltip="Polonium" display="https://fr.wikipedia.org/wiki/Polonium" xr:uid="{742708D4-638E-4B65-8345-EE11D3B42000}"/>
+    <hyperlink ref="C86" r:id="rId85" tooltip="Astate" display="https://fr.wikipedia.org/wiki/Astate" xr:uid="{E4418FCF-7AF8-4A19-B4E0-B647B4BC9E43}"/>
+    <hyperlink ref="C87" r:id="rId86" tooltip="Radon" display="https://fr.wikipedia.org/wiki/Radon" xr:uid="{C2FDC779-604A-45DC-A617-1B7B258C24EB}"/>
+    <hyperlink ref="C88" r:id="rId87" tooltip="Francium" display="https://fr.wikipedia.org/wiki/Francium" xr:uid="{69D9BF71-CD12-4CE0-BCE8-202BD493C7D6}"/>
+    <hyperlink ref="C89" r:id="rId88" tooltip="Radium" display="https://fr.wikipedia.org/wiki/Radium" xr:uid="{E5A8CF12-451B-4167-9239-5C630BBB3838}"/>
+    <hyperlink ref="C90" r:id="rId89" tooltip="Actinium" display="https://fr.wikipedia.org/wiki/Actinium" xr:uid="{81F8A535-5490-4A67-A13E-15005F8274C8}"/>
+    <hyperlink ref="C91" r:id="rId90" tooltip="Thorium" display="https://fr.wikipedia.org/wiki/Thorium" xr:uid="{545422D2-A234-40B3-9560-780C00CED587}"/>
+    <hyperlink ref="C92" r:id="rId91" tooltip="Protactinium" display="https://fr.wikipedia.org/wiki/Protactinium" xr:uid="{E311C124-2436-4BB1-B413-B009E13E7112}"/>
+    <hyperlink ref="C93" r:id="rId92" tooltip="Uranium" display="https://fr.wikipedia.org/wiki/Uranium" xr:uid="{3093879D-67DD-4F89-9622-14EEDCE28DA3}"/>
+    <hyperlink ref="C94" r:id="rId93" tooltip="Neptunium" display="https://fr.wikipedia.org/wiki/Neptunium" xr:uid="{C67140A9-E40B-426B-9831-BCBDB9CD5B4F}"/>
+    <hyperlink ref="C95" r:id="rId94" tooltip="Plutonium" display="https://fr.wikipedia.org/wiki/Plutonium" xr:uid="{AA5D5320-1028-4CAE-B128-F5992ACB113D}"/>
+    <hyperlink ref="C96" r:id="rId95" tooltip="Américium" display="https://fr.wikipedia.org/wiki/Am%C3%A9ricium" xr:uid="{D277092F-9DFD-4141-B101-65AF67618537}"/>
+    <hyperlink ref="C97" r:id="rId96" tooltip="Curium" display="https://fr.wikipedia.org/wiki/Curium" xr:uid="{7C24FF2E-9966-41E1-B66F-C479B30BC4B5}"/>
+    <hyperlink ref="C98" r:id="rId97" tooltip="Berkélium" display="https://fr.wikipedia.org/wiki/Berk%C3%A9lium" xr:uid="{74FFBDE8-B3E8-4920-B6E4-1FE3B354C0D1}"/>
+    <hyperlink ref="C99" r:id="rId98" tooltip="Californium" display="https://fr.wikipedia.org/wiki/Californium" xr:uid="{D945A91F-6F93-4DDF-9AF7-AAF868E0A03C}"/>
+    <hyperlink ref="C100" r:id="rId99" tooltip="Einsteinium" display="https://fr.wikipedia.org/wiki/Einsteinium" xr:uid="{B569D22D-EBD0-4D76-B18D-91A67E46CC4D}"/>
+    <hyperlink ref="C101" r:id="rId100" tooltip="Fermium" display="https://fr.wikipedia.org/wiki/Fermium" xr:uid="{3C261BA9-28BE-4C75-A7D6-909F174A9ACF}"/>
+    <hyperlink ref="C102" r:id="rId101" tooltip="Mendélévium" display="https://fr.wikipedia.org/wiki/Mend%C3%A9l%C3%A9vium" xr:uid="{40B487F7-948A-40D7-B1F4-3675CF0F69DB}"/>
+    <hyperlink ref="C103" r:id="rId102" tooltip="Nobélium" display="https://fr.wikipedia.org/wiki/Nob%C3%A9lium" xr:uid="{203804A1-8862-431A-A34E-1C3DC67F6FF3}"/>
+    <hyperlink ref="C104" r:id="rId103" tooltip="Lawrencium" display="https://fr.wikipedia.org/wiki/Lawrencium" xr:uid="{72C00D4D-47AF-429C-A48D-63005D6F8417}"/>
+    <hyperlink ref="C105" r:id="rId104" tooltip="Rutherfordium" display="https://fr.wikipedia.org/wiki/Rutherfordium" xr:uid="{DEE601FB-AB15-498C-94B3-AB238C03CBC5}"/>
+    <hyperlink ref="C106" r:id="rId105" tooltip="Dubnium" display="https://fr.wikipedia.org/wiki/Dubnium" xr:uid="{D70DF06B-E7F1-4B6F-80FB-743E03858D84}"/>
+    <hyperlink ref="C107" r:id="rId106" tooltip="Seaborgium" display="https://fr.wikipedia.org/wiki/Seaborgium" xr:uid="{BDD94D0A-ECBD-4609-AA75-4776E4EE1954}"/>
+    <hyperlink ref="C108" r:id="rId107" tooltip="Bohrium" display="https://fr.wikipedia.org/wiki/Bohrium" xr:uid="{571D2739-2BF2-4CE0-88B6-E23989CB98F9}"/>
+    <hyperlink ref="C109" r:id="rId108" tooltip="Hassium" display="https://fr.wikipedia.org/wiki/Hassium" xr:uid="{B2A258BA-B478-4EFC-9832-5E0C2195542D}"/>
+    <hyperlink ref="C110" r:id="rId109" tooltip="Meitnérium" display="https://fr.wikipedia.org/wiki/Meitn%C3%A9rium" xr:uid="{6BBD316E-ACC7-44CE-A7B9-C4D08631EB7A}"/>
+    <hyperlink ref="C111" r:id="rId110" tooltip="Darmstadtium" display="https://fr.wikipedia.org/wiki/Darmstadtium" xr:uid="{6E42296D-445D-43DA-AC1C-0003CC19343A}"/>
+    <hyperlink ref="C112" r:id="rId111" tooltip="Roentgenium" display="https://fr.wikipedia.org/wiki/Roentgenium" xr:uid="{3C522576-9335-4F21-BF24-5E7245EF0F1E}"/>
+    <hyperlink ref="C113" r:id="rId112" tooltip="Copernicium" display="https://fr.wikipedia.org/wiki/Copernicium" xr:uid="{B4340B77-B166-4328-B7CE-49A30AE8BD9C}"/>
+    <hyperlink ref="C114" r:id="rId113" tooltip="Nihonium" display="https://fr.wikipedia.org/wiki/Nihonium" xr:uid="{20FE4954-D323-4E1E-81F4-145BD2B04711}"/>
+    <hyperlink ref="C115" r:id="rId114" tooltip="Flérovium" display="https://fr.wikipedia.org/wiki/Fl%C3%A9rovium" xr:uid="{75051DAF-4D7F-45C6-8417-8CA53D1535CE}"/>
+    <hyperlink ref="C116" r:id="rId115" tooltip="Moscovium" display="https://fr.wikipedia.org/wiki/Moscovium" xr:uid="{6224C679-48A1-4940-909A-62C8CD5046B9}"/>
+    <hyperlink ref="C117" r:id="rId116" tooltip="Livermorium" display="https://fr.wikipedia.org/wiki/Livermorium" xr:uid="{8F125384-C4EF-4E37-A25F-E3E759A75BAD}"/>
+    <hyperlink ref="C118" r:id="rId117" tooltip="Tennesse" display="https://fr.wikipedia.org/wiki/Tennesse" xr:uid="{48B28CF2-880A-4268-8C06-29FBA97CE975}"/>
+    <hyperlink ref="C120" r:id="rId118" tooltip="Oganesson" display="https://fr.wikipedia.org/wiki/Oganesson" xr:uid="{495DC492-0A8C-4F8E-8083-ECA432C59293}"/>
+    <hyperlink ref="C121" r:id="rId119" tooltip="Ununennium" display="https://fr.wikipedia.org/wiki/Ununennium" xr:uid="{CEB03753-318E-43E9-A9A8-A75914E86617}"/>
+    <hyperlink ref="C122" r:id="rId120" tooltip="Unbinilium" display="https://fr.wikipedia.org/wiki/Unbinilium" xr:uid="{3F3A0A7C-D224-40E4-A86D-8593E05C4135}"/>
+    <hyperlink ref="C124" r:id="rId121" tooltip="Unbiunium" display="https://fr.wikipedia.org/wiki/Unbiunium" xr:uid="{2F76CB11-E23C-407A-B9AB-FB26CA4067E0}"/>
+    <hyperlink ref="C125" r:id="rId122" tooltip="Unbibium" display="https://fr.wikipedia.org/wiki/Unbibium" xr:uid="{3D5240C9-4052-4251-B579-ED8946BDE1A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId123"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6FCF86-27CF-49DD-BB04-7FE2820C997D}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
